--- a/Tabla de estadops.xlsx
+++ b/Tabla de estadops.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,22 +24,187 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>Posision</t>
   </si>
   <si>
-    <t>Estados</t>
-  </si>
-  <si>
     <t>Entradas</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>a-z</t>
+  </si>
+  <si>
+    <t>A-Z</t>
+  </si>
+  <si>
+    <t>esp</t>
+  </si>
+  <si>
+    <t>s+s-</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>s=</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>inicio</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>identificador</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>INVALIDO</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>Invalido 38</t>
+  </si>
+  <si>
+    <t>OpAdicion</t>
+  </si>
+  <si>
+    <t>OpMultiplicacion</t>
+  </si>
+  <si>
+    <t>OpeRelacional &lt;&gt;</t>
+  </si>
+  <si>
+    <t>OpeRelacional =</t>
+  </si>
+  <si>
+    <t>OpOr</t>
+  </si>
+  <si>
+    <t>OpAnd</t>
+  </si>
+  <si>
+    <t>OpNot</t>
+  </si>
+  <si>
+    <t>OpIgualdad</t>
+  </si>
+  <si>
+    <t>Asignacion</t>
+  </si>
+  <si>
+    <t>Punto y coma</t>
+  </si>
+  <si>
+    <t>Coma</t>
+  </si>
+  <si>
+    <t>Parentesis</t>
+  </si>
+  <si>
+    <t>Llaves</t>
+  </si>
+  <si>
+    <t>Signo</t>
+  </si>
+  <si>
+    <t>Guradar token como</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,16 +212,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -64,19 +266,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Salida" xfId="3" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,52 +585,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="90" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="90" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
@@ -411,412 +647,4348 @@
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2">
-        <v>9</v>
-      </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-      <c r="N2">
-        <v>11</v>
-      </c>
-      <c r="O2">
-        <v>12</v>
-      </c>
-      <c r="P2">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q2">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R2">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S2">
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T2">
+      <c r="S2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U2">
-        <v>18</v>
-      </c>
-      <c r="V2">
+      <c r="U2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W2">
+      <c r="V2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X2">
+      <c r="W2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y2">
+      <c r="X2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z2">
+      <c r="Y2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA2">
+      <c r="Z2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB2">
+      <c r="AA2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC2">
+      <c r="AB2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD2">
+      <c r="AC2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE2">
+      <c r="AD2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF2">
+      <c r="AE2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG2">
+      <c r="AF2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AG2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3">
         <v>6</v>
       </c>
-      <c r="I3">
+      <c r="J3" s="3">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3">
+        <v>11</v>
+      </c>
+      <c r="O3" s="3">
+        <v>12</v>
+      </c>
+      <c r="P3" s="3">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>14</v>
+      </c>
+      <c r="R3" s="3">
+        <v>15</v>
+      </c>
+      <c r="S3" s="3">
+        <v>16</v>
+      </c>
+      <c r="T3" s="3">
         <v>17</v>
       </c>
-      <c r="J3">
-        <v>11</v>
-      </c>
-      <c r="R3">
-        <v>40</v>
-      </c>
-      <c r="U3">
+      <c r="U3" s="3">
+        <v>18</v>
+      </c>
+      <c r="V3" s="3">
+        <v>19</v>
+      </c>
+      <c r="W3" s="3">
+        <v>20</v>
+      </c>
+      <c r="X3" s="3">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="3">
         <v>23</v>
       </c>
-      <c r="V3">
+      <c r="AA3" s="3">
         <v>24</v>
       </c>
-      <c r="W3">
+      <c r="AB3" s="3">
         <v>25</v>
       </c>
-      <c r="X3">
-        <v>33</v>
-      </c>
-      <c r="Y3">
-        <v>31</v>
-      </c>
-      <c r="Z3">
+      <c r="AC3" s="3">
+        <v>26</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>27</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="3">
         <v>29</v>
       </c>
-      <c r="AA3">
-        <v>27</v>
-      </c>
-      <c r="AB3">
-        <v>36</v>
-      </c>
-      <c r="AC3">
-        <v>37</v>
-      </c>
-      <c r="AD3">
-        <v>34</v>
-      </c>
-      <c r="AE3">
-        <v>35</v>
-      </c>
-      <c r="AF3">
-        <v>39</v>
-      </c>
-      <c r="AG3">
-        <v>38</v>
+      <c r="AG3" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4">
-        <v>1</v>
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <v>40</v>
+      </c>
+      <c r="M4">
+        <v>40</v>
+      </c>
+      <c r="N4">
+        <v>40</v>
+      </c>
+      <c r="O4">
+        <v>40</v>
+      </c>
+      <c r="P4">
+        <v>40</v>
+      </c>
+      <c r="Q4">
+        <v>40</v>
+      </c>
+      <c r="R4">
+        <v>40</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>40</v>
+      </c>
+      <c r="U4">
+        <v>23</v>
+      </c>
+      <c r="V4">
+        <v>24</v>
+      </c>
+      <c r="W4">
+        <v>25</v>
+      </c>
+      <c r="X4">
+        <v>33</v>
+      </c>
+      <c r="Y4">
+        <v>31</v>
+      </c>
+      <c r="Z4">
+        <v>29</v>
+      </c>
+      <c r="AA4">
+        <v>27</v>
+      </c>
+      <c r="AB4">
+        <v>36</v>
+      </c>
+      <c r="AC4">
+        <v>37</v>
+      </c>
+      <c r="AD4">
+        <v>34</v>
+      </c>
+      <c r="AE4">
+        <v>39</v>
+      </c>
+      <c r="AF4">
+        <v>35</v>
+      </c>
+      <c r="AG4">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>40</v>
+      </c>
+      <c r="L5">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>40</v>
+      </c>
+      <c r="O5">
+        <v>40</v>
+      </c>
+      <c r="P5">
+        <v>40</v>
+      </c>
+      <c r="Q5">
+        <v>40</v>
+      </c>
+      <c r="R5">
+        <v>40</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>40</v>
+      </c>
+      <c r="U5">
+        <v>23</v>
+      </c>
+      <c r="V5">
+        <v>24</v>
+      </c>
+      <c r="W5">
+        <v>25</v>
+      </c>
+      <c r="X5">
+        <v>33</v>
+      </c>
+      <c r="Y5">
+        <v>31</v>
+      </c>
+      <c r="Z5">
+        <v>29</v>
+      </c>
+      <c r="AA5">
+        <v>27</v>
+      </c>
+      <c r="AB5">
+        <v>36</v>
+      </c>
+      <c r="AC5">
+        <v>37</v>
+      </c>
+      <c r="AD5">
+        <v>34</v>
+      </c>
+      <c r="AE5" s="4">
         <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>39</v>
+      </c>
+      <c r="AG5">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
         <v>3</v>
+      </c>
+      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>38</v>
+      </c>
+      <c r="G6">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>38</v>
+      </c>
+      <c r="I6">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>38</v>
+      </c>
+      <c r="M6">
+        <v>38</v>
+      </c>
+      <c r="N6">
+        <v>38</v>
+      </c>
+      <c r="O6">
+        <v>38</v>
+      </c>
+      <c r="P6">
+        <v>38</v>
+      </c>
+      <c r="Q6">
+        <v>38</v>
+      </c>
+      <c r="R6">
+        <v>38</v>
+      </c>
+      <c r="S6">
+        <v>38</v>
+      </c>
+      <c r="T6">
+        <v>38</v>
+      </c>
+      <c r="U6">
+        <v>38</v>
+      </c>
+      <c r="V6">
+        <v>38</v>
+      </c>
+      <c r="W6">
+        <v>38</v>
+      </c>
+      <c r="X6">
+        <v>38</v>
+      </c>
+      <c r="Y6">
+        <v>38</v>
+      </c>
+      <c r="Z6">
+        <v>38</v>
+      </c>
+      <c r="AA6">
+        <v>38</v>
+      </c>
+      <c r="AB6">
+        <v>38</v>
+      </c>
+      <c r="AC6">
+        <v>38</v>
+      </c>
+      <c r="AD6">
+        <v>38</v>
+      </c>
+      <c r="AE6">
+        <v>38</v>
+      </c>
+      <c r="AF6">
+        <v>38</v>
+      </c>
+      <c r="AG6">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7">
         <v>4</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <v>40</v>
+      </c>
+      <c r="L7">
+        <v>40</v>
+      </c>
+      <c r="M7">
+        <v>40</v>
+      </c>
+      <c r="N7">
+        <v>40</v>
+      </c>
+      <c r="O7">
+        <v>40</v>
+      </c>
+      <c r="P7">
+        <v>40</v>
+      </c>
+      <c r="Q7">
+        <v>40</v>
+      </c>
+      <c r="R7">
+        <v>40</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>40</v>
+      </c>
+      <c r="U7">
+        <v>23</v>
+      </c>
+      <c r="V7">
+        <v>24</v>
+      </c>
+      <c r="W7">
+        <v>25</v>
+      </c>
+      <c r="X7">
+        <v>33</v>
+      </c>
+      <c r="Y7">
+        <v>31</v>
+      </c>
+      <c r="Z7">
+        <v>29</v>
+      </c>
+      <c r="AA7">
+        <v>27</v>
+      </c>
+      <c r="AB7">
+        <v>36</v>
+      </c>
+      <c r="AC7">
+        <v>37</v>
+      </c>
+      <c r="AD7">
+        <v>34</v>
+      </c>
+      <c r="AE7">
+        <v>39</v>
+      </c>
+      <c r="AF7">
+        <v>35</v>
+      </c>
+      <c r="AG7">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4">
         <v>5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>40</v>
+      </c>
+      <c r="G8" s="4">
+        <v>40</v>
+      </c>
+      <c r="H8" s="4">
+        <v>40</v>
+      </c>
+      <c r="I8" s="4">
+        <v>40</v>
+      </c>
+      <c r="J8" s="4">
+        <v>40</v>
+      </c>
+      <c r="K8" s="4">
+        <v>40</v>
+      </c>
+      <c r="L8" s="4">
+        <v>40</v>
+      </c>
+      <c r="M8" s="4">
+        <v>40</v>
+      </c>
+      <c r="N8" s="4">
+        <v>40</v>
+      </c>
+      <c r="O8" s="4">
+        <v>40</v>
+      </c>
+      <c r="P8" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>40</v>
+      </c>
+      <c r="R8" s="4">
+        <v>40</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>40</v>
+      </c>
+      <c r="U8">
+        <v>23</v>
+      </c>
+      <c r="V8">
+        <v>24</v>
+      </c>
+      <c r="W8">
+        <v>25</v>
+      </c>
+      <c r="X8">
+        <v>33</v>
+      </c>
+      <c r="Y8">
+        <v>31</v>
+      </c>
+      <c r="Z8">
+        <v>29</v>
+      </c>
+      <c r="AA8">
+        <v>27</v>
+      </c>
+      <c r="AB8">
+        <v>36</v>
+      </c>
+      <c r="AC8">
+        <v>37</v>
+      </c>
+      <c r="AD8">
+        <v>34</v>
+      </c>
+      <c r="AE8">
+        <v>39</v>
+      </c>
+      <c r="AF8">
+        <v>35</v>
+      </c>
+      <c r="AG8">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9">
-        <v>6</v>
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4">
+        <v>40</v>
+      </c>
+      <c r="G9" s="4">
+        <v>40</v>
+      </c>
+      <c r="H9" s="4">
+        <v>40</v>
+      </c>
+      <c r="I9" s="4">
+        <v>40</v>
+      </c>
+      <c r="J9" s="4">
+        <v>40</v>
+      </c>
+      <c r="K9" s="4">
+        <v>40</v>
+      </c>
+      <c r="L9" s="4">
+        <v>40</v>
+      </c>
+      <c r="M9" s="4">
+        <v>40</v>
+      </c>
+      <c r="N9" s="4">
+        <v>40</v>
+      </c>
+      <c r="O9" s="4">
+        <v>40</v>
+      </c>
+      <c r="P9" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>40</v>
+      </c>
+      <c r="R9" s="4">
+        <v>40</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>40</v>
+      </c>
+      <c r="U9">
+        <v>23</v>
+      </c>
+      <c r="V9">
+        <v>24</v>
+      </c>
+      <c r="W9">
+        <v>25</v>
+      </c>
+      <c r="X9">
+        <v>33</v>
+      </c>
+      <c r="Y9">
+        <v>31</v>
+      </c>
+      <c r="Z9">
+        <v>29</v>
+      </c>
+      <c r="AA9">
+        <v>27</v>
+      </c>
+      <c r="AB9">
+        <v>36</v>
+      </c>
+      <c r="AC9">
+        <v>37</v>
+      </c>
+      <c r="AD9">
+        <v>34</v>
+      </c>
+      <c r="AE9">
+        <v>39</v>
+      </c>
+      <c r="AF9">
+        <v>35</v>
+      </c>
+      <c r="AG9">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4">
+        <v>40</v>
+      </c>
+      <c r="F10" s="4">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4">
         <v>7</v>
+      </c>
+      <c r="H10" s="4">
+        <v>40</v>
+      </c>
+      <c r="I10" s="4">
+        <v>40</v>
+      </c>
+      <c r="J10" s="4">
+        <v>40</v>
+      </c>
+      <c r="K10" s="4">
+        <v>40</v>
+      </c>
+      <c r="L10" s="4">
+        <v>40</v>
+      </c>
+      <c r="M10" s="4">
+        <v>40</v>
+      </c>
+      <c r="N10" s="4">
+        <v>40</v>
+      </c>
+      <c r="O10" s="4">
+        <v>40</v>
+      </c>
+      <c r="P10" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>40</v>
+      </c>
+      <c r="R10" s="4">
+        <v>40</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>40</v>
+      </c>
+      <c r="U10">
+        <v>23</v>
+      </c>
+      <c r="V10">
+        <v>24</v>
+      </c>
+      <c r="W10">
+        <v>25</v>
+      </c>
+      <c r="X10">
+        <v>33</v>
+      </c>
+      <c r="Y10">
+        <v>31</v>
+      </c>
+      <c r="Z10">
+        <v>29</v>
+      </c>
+      <c r="AA10">
+        <v>27</v>
+      </c>
+      <c r="AB10">
+        <v>36</v>
+      </c>
+      <c r="AC10">
+        <v>37</v>
+      </c>
+      <c r="AD10">
+        <v>34</v>
+      </c>
+      <c r="AE10">
+        <v>39</v>
+      </c>
+      <c r="AF10">
+        <v>35</v>
+      </c>
+      <c r="AG10">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4">
         <v>8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>40</v>
+      </c>
+      <c r="F11" s="4">
+        <v>40</v>
+      </c>
+      <c r="G11" s="4">
+        <v>40</v>
+      </c>
+      <c r="H11" s="4">
+        <v>40</v>
+      </c>
+      <c r="I11" s="4">
+        <v>40</v>
+      </c>
+      <c r="J11" s="4">
+        <v>40</v>
+      </c>
+      <c r="K11" s="4">
+        <v>40</v>
+      </c>
+      <c r="L11" s="4">
+        <v>40</v>
+      </c>
+      <c r="M11" s="4">
+        <v>40</v>
+      </c>
+      <c r="N11" s="4">
+        <v>40</v>
+      </c>
+      <c r="O11" s="4">
+        <v>40</v>
+      </c>
+      <c r="P11" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>40</v>
+      </c>
+      <c r="R11" s="4">
+        <v>40</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>40</v>
+      </c>
+      <c r="U11">
+        <v>23</v>
+      </c>
+      <c r="V11">
+        <v>24</v>
+      </c>
+      <c r="W11">
+        <v>25</v>
+      </c>
+      <c r="X11">
+        <v>33</v>
+      </c>
+      <c r="Y11">
+        <v>31</v>
+      </c>
+      <c r="Z11">
+        <v>29</v>
+      </c>
+      <c r="AA11">
+        <v>27</v>
+      </c>
+      <c r="AB11">
+        <v>36</v>
+      </c>
+      <c r="AC11">
+        <v>37</v>
+      </c>
+      <c r="AD11">
+        <v>34</v>
+      </c>
+      <c r="AE11">
+        <v>39</v>
+      </c>
+      <c r="AF11">
+        <v>35</v>
+      </c>
+      <c r="AG11">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4">
+        <v>40</v>
+      </c>
+      <c r="H12" s="4">
         <v>9</v>
+      </c>
+      <c r="I12" s="4">
+        <v>40</v>
+      </c>
+      <c r="J12" s="4">
+        <v>40</v>
+      </c>
+      <c r="K12" s="4">
+        <v>40</v>
+      </c>
+      <c r="L12" s="4">
+        <v>40</v>
+      </c>
+      <c r="M12" s="4">
+        <v>40</v>
+      </c>
+      <c r="N12" s="4">
+        <v>40</v>
+      </c>
+      <c r="O12" s="4">
+        <v>40</v>
+      </c>
+      <c r="P12" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>40</v>
+      </c>
+      <c r="R12" s="4">
+        <v>40</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>40</v>
+      </c>
+      <c r="U12">
+        <v>23</v>
+      </c>
+      <c r="V12">
+        <v>24</v>
+      </c>
+      <c r="W12">
+        <v>25</v>
+      </c>
+      <c r="X12">
+        <v>33</v>
+      </c>
+      <c r="Y12">
+        <v>31</v>
+      </c>
+      <c r="Z12">
+        <v>29</v>
+      </c>
+      <c r="AA12">
+        <v>27</v>
+      </c>
+      <c r="AB12">
+        <v>36</v>
+      </c>
+      <c r="AC12">
+        <v>37</v>
+      </c>
+      <c r="AD12">
+        <v>34</v>
+      </c>
+      <c r="AE12">
+        <v>39</v>
+      </c>
+      <c r="AF12">
+        <v>35</v>
+      </c>
+      <c r="AG12">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4">
+        <v>40</v>
+      </c>
+      <c r="G13" s="4">
+        <v>40</v>
+      </c>
+      <c r="H13" s="4">
+        <v>40</v>
+      </c>
+      <c r="I13" s="4">
         <v>10</v>
+      </c>
+      <c r="J13" s="4">
+        <v>40</v>
+      </c>
+      <c r="K13" s="4">
+        <v>40</v>
+      </c>
+      <c r="L13" s="4">
+        <v>40</v>
+      </c>
+      <c r="M13" s="4">
+        <v>40</v>
+      </c>
+      <c r="N13" s="4">
+        <v>40</v>
+      </c>
+      <c r="O13" s="4">
+        <v>40</v>
+      </c>
+      <c r="P13" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>40</v>
+      </c>
+      <c r="R13" s="4">
+        <v>40</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>40</v>
+      </c>
+      <c r="U13">
+        <v>23</v>
+      </c>
+      <c r="V13">
+        <v>24</v>
+      </c>
+      <c r="W13">
+        <v>25</v>
+      </c>
+      <c r="X13">
+        <v>33</v>
+      </c>
+      <c r="Y13">
+        <v>31</v>
+      </c>
+      <c r="Z13">
+        <v>29</v>
+      </c>
+      <c r="AA13">
+        <v>27</v>
+      </c>
+      <c r="AB13">
+        <v>36</v>
+      </c>
+      <c r="AC13">
+        <v>37</v>
+      </c>
+      <c r="AD13">
+        <v>34</v>
+      </c>
+      <c r="AE13">
+        <v>39</v>
+      </c>
+      <c r="AF13">
+        <v>35</v>
+      </c>
+      <c r="AG13">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14">
-        <v>11</v>
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4">
+        <v>40</v>
+      </c>
+      <c r="E14" s="4">
+        <v>40</v>
+      </c>
+      <c r="F14" s="4">
+        <v>40</v>
+      </c>
+      <c r="G14" s="4">
+        <v>40</v>
+      </c>
+      <c r="H14" s="4">
+        <v>40</v>
+      </c>
+      <c r="I14" s="4">
+        <v>40</v>
+      </c>
+      <c r="J14" s="4">
+        <v>40</v>
+      </c>
+      <c r="K14" s="4">
+        <v>40</v>
+      </c>
+      <c r="L14" s="4">
+        <v>40</v>
+      </c>
+      <c r="M14" s="4">
+        <v>40</v>
+      </c>
+      <c r="N14" s="4">
+        <v>40</v>
+      </c>
+      <c r="O14" s="4">
+        <v>40</v>
+      </c>
+      <c r="P14" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>40</v>
+      </c>
+      <c r="R14" s="4">
+        <v>40</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>40</v>
+      </c>
+      <c r="U14">
+        <v>23</v>
+      </c>
+      <c r="V14">
+        <v>24</v>
+      </c>
+      <c r="W14">
+        <v>25</v>
+      </c>
+      <c r="X14">
+        <v>33</v>
+      </c>
+      <c r="Y14">
+        <v>31</v>
+      </c>
+      <c r="Z14">
+        <v>29</v>
+      </c>
+      <c r="AA14">
+        <v>27</v>
+      </c>
+      <c r="AB14">
+        <v>36</v>
+      </c>
+      <c r="AC14">
+        <v>37</v>
+      </c>
+      <c r="AD14">
+        <v>34</v>
+      </c>
+      <c r="AE14">
+        <v>39</v>
+      </c>
+      <c r="AF14">
+        <v>35</v>
+      </c>
+      <c r="AG14">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4">
+        <v>40</v>
+      </c>
+      <c r="E15" s="4">
+        <v>40</v>
+      </c>
+      <c r="F15" s="4">
+        <v>40</v>
+      </c>
+      <c r="G15" s="4">
+        <v>40</v>
+      </c>
+      <c r="H15" s="4">
+        <v>40</v>
+      </c>
+      <c r="I15" s="4">
         <v>12</v>
+      </c>
+      <c r="J15" s="4">
+        <v>40</v>
+      </c>
+      <c r="K15" s="4">
+        <v>40</v>
+      </c>
+      <c r="L15" s="4">
+        <v>40</v>
+      </c>
+      <c r="M15" s="4">
+        <v>40</v>
+      </c>
+      <c r="N15" s="4">
+        <v>40</v>
+      </c>
+      <c r="O15" s="4">
+        <v>40</v>
+      </c>
+      <c r="P15" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>40</v>
+      </c>
+      <c r="R15" s="4">
+        <v>40</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>40</v>
+      </c>
+      <c r="U15">
+        <v>23</v>
+      </c>
+      <c r="V15">
+        <v>24</v>
+      </c>
+      <c r="W15">
+        <v>25</v>
+      </c>
+      <c r="X15">
+        <v>33</v>
+      </c>
+      <c r="Y15">
+        <v>31</v>
+      </c>
+      <c r="Z15">
+        <v>29</v>
+      </c>
+      <c r="AA15">
+        <v>27</v>
+      </c>
+      <c r="AB15">
+        <v>36</v>
+      </c>
+      <c r="AC15">
+        <v>37</v>
+      </c>
+      <c r="AD15">
+        <v>34</v>
+      </c>
+      <c r="AE15">
+        <v>39</v>
+      </c>
+      <c r="AF15">
+        <v>35</v>
+      </c>
+      <c r="AG15">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4">
+        <v>40</v>
+      </c>
+      <c r="D16" s="4">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4">
+        <v>40</v>
+      </c>
+      <c r="F16" s="4">
+        <v>40</v>
+      </c>
+      <c r="G16" s="4">
+        <v>40</v>
+      </c>
+      <c r="H16" s="4">
+        <v>40</v>
+      </c>
+      <c r="I16" s="4">
+        <v>40</v>
+      </c>
+      <c r="J16" s="4">
+        <v>40</v>
+      </c>
+      <c r="K16" s="4">
         <v>13</v>
       </c>
+      <c r="L16" s="4">
+        <v>40</v>
+      </c>
+      <c r="M16" s="4">
+        <v>40</v>
+      </c>
+      <c r="N16" s="4">
+        <v>40</v>
+      </c>
+      <c r="O16" s="4">
+        <v>40</v>
+      </c>
+      <c r="P16" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>40</v>
+      </c>
+      <c r="R16" s="4">
+        <v>40</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>40</v>
+      </c>
+      <c r="U16">
+        <v>23</v>
+      </c>
+      <c r="V16">
+        <v>24</v>
+      </c>
+      <c r="W16">
+        <v>25</v>
+      </c>
+      <c r="X16">
+        <v>33</v>
+      </c>
+      <c r="Y16">
+        <v>31</v>
+      </c>
+      <c r="Z16">
+        <v>29</v>
+      </c>
+      <c r="AA16">
+        <v>27</v>
+      </c>
+      <c r="AB16">
+        <v>36</v>
+      </c>
+      <c r="AC16">
+        <v>37</v>
+      </c>
+      <c r="AD16">
+        <v>34</v>
+      </c>
+      <c r="AE16">
+        <v>39</v>
+      </c>
+      <c r="AF16">
+        <v>35</v>
+      </c>
+      <c r="AG16">
+        <v>38</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4">
+        <v>40</v>
+      </c>
+      <c r="D17" s="4">
+        <v>40</v>
+      </c>
+      <c r="E17" s="4">
+        <v>40</v>
+      </c>
+      <c r="F17" s="4">
+        <v>40</v>
+      </c>
+      <c r="G17" s="4">
+        <v>40</v>
+      </c>
+      <c r="H17" s="4">
+        <v>40</v>
+      </c>
+      <c r="I17" s="4">
+        <v>40</v>
+      </c>
+      <c r="J17" s="4">
+        <v>40</v>
+      </c>
+      <c r="K17" s="4">
+        <v>40</v>
+      </c>
+      <c r="L17" s="4">
         <v>14</v>
       </c>
+      <c r="M17" s="4">
+        <v>40</v>
+      </c>
+      <c r="N17" s="4">
+        <v>40</v>
+      </c>
+      <c r="O17" s="4">
+        <v>40</v>
+      </c>
+      <c r="P17" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>40</v>
+      </c>
+      <c r="R17" s="4">
+        <v>40</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>40</v>
+      </c>
+      <c r="U17">
+        <v>23</v>
+      </c>
+      <c r="V17">
+        <v>24</v>
+      </c>
+      <c r="W17">
+        <v>25</v>
+      </c>
+      <c r="X17">
+        <v>33</v>
+      </c>
+      <c r="Y17">
+        <v>31</v>
+      </c>
+      <c r="Z17">
+        <v>29</v>
+      </c>
+      <c r="AA17">
+        <v>27</v>
+      </c>
+      <c r="AB17">
+        <v>36</v>
+      </c>
+      <c r="AC17">
+        <v>37</v>
+      </c>
+      <c r="AD17">
+        <v>34</v>
+      </c>
+      <c r="AE17">
+        <v>39</v>
+      </c>
+      <c r="AF17">
+        <v>35</v>
+      </c>
+      <c r="AG17">
+        <v>38</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4">
+        <v>40</v>
+      </c>
+      <c r="E18" s="4">
+        <v>40</v>
+      </c>
+      <c r="F18" s="4">
+        <v>40</v>
+      </c>
+      <c r="G18" s="4">
+        <v>40</v>
+      </c>
+      <c r="H18" s="4">
+        <v>40</v>
+      </c>
+      <c r="I18" s="4">
+        <v>40</v>
+      </c>
+      <c r="J18" s="4">
         <v>15</v>
       </c>
+      <c r="K18" s="4">
+        <v>40</v>
+      </c>
+      <c r="L18" s="4">
+        <v>40</v>
+      </c>
+      <c r="M18" s="4">
+        <v>40</v>
+      </c>
+      <c r="N18" s="4">
+        <v>40</v>
+      </c>
+      <c r="O18" s="4">
+        <v>40</v>
+      </c>
+      <c r="P18" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>40</v>
+      </c>
+      <c r="R18" s="4">
+        <v>40</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <v>40</v>
+      </c>
+      <c r="U18">
+        <v>23</v>
+      </c>
+      <c r="V18">
+        <v>24</v>
+      </c>
+      <c r="W18">
+        <v>25</v>
+      </c>
+      <c r="X18">
+        <v>33</v>
+      </c>
+      <c r="Y18">
+        <v>31</v>
+      </c>
+      <c r="Z18">
+        <v>29</v>
+      </c>
+      <c r="AA18">
+        <v>27</v>
+      </c>
+      <c r="AB18">
+        <v>36</v>
+      </c>
+      <c r="AC18">
+        <v>37</v>
+      </c>
+      <c r="AD18">
+        <v>34</v>
+      </c>
+      <c r="AE18">
+        <v>39</v>
+      </c>
+      <c r="AF18">
+        <v>35</v>
+      </c>
+      <c r="AG18">
+        <v>38</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4">
+        <v>40</v>
+      </c>
+      <c r="E19" s="4">
+        <v>40</v>
+      </c>
+      <c r="F19" s="4">
+        <v>40</v>
+      </c>
+      <c r="G19" s="4">
+        <v>40</v>
+      </c>
+      <c r="H19" s="4">
+        <v>40</v>
+      </c>
+      <c r="I19" s="4">
+        <v>40</v>
+      </c>
+      <c r="J19" s="4">
+        <v>40</v>
+      </c>
+      <c r="K19" s="4">
+        <v>40</v>
+      </c>
+      <c r="L19" s="4">
+        <v>40</v>
+      </c>
+      <c r="M19" s="4">
         <v>16</v>
       </c>
+      <c r="N19" s="4">
+        <v>40</v>
+      </c>
+      <c r="O19" s="4">
+        <v>40</v>
+      </c>
+      <c r="P19" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>40</v>
+      </c>
+      <c r="R19" s="4">
+        <v>40</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>40</v>
+      </c>
+      <c r="U19">
+        <v>23</v>
+      </c>
+      <c r="V19">
+        <v>24</v>
+      </c>
+      <c r="W19">
+        <v>25</v>
+      </c>
+      <c r="X19">
+        <v>33</v>
+      </c>
+      <c r="Y19">
+        <v>31</v>
+      </c>
+      <c r="Z19">
+        <v>29</v>
+      </c>
+      <c r="AA19">
+        <v>27</v>
+      </c>
+      <c r="AB19">
+        <v>36</v>
+      </c>
+      <c r="AC19">
+        <v>37</v>
+      </c>
+      <c r="AD19">
+        <v>34</v>
+      </c>
+      <c r="AE19">
+        <v>39</v>
+      </c>
+      <c r="AF19">
+        <v>35</v>
+      </c>
+      <c r="AG19">
+        <v>38</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4">
+        <v>40</v>
+      </c>
+      <c r="E20" s="4">
+        <v>40</v>
+      </c>
+      <c r="F20" s="4">
+        <v>40</v>
+      </c>
+      <c r="G20" s="4">
+        <v>40</v>
+      </c>
+      <c r="H20" s="4">
+        <v>40</v>
+      </c>
+      <c r="I20" s="4">
+        <v>40</v>
+      </c>
+      <c r="J20" s="4">
+        <v>40</v>
+      </c>
+      <c r="K20" s="4">
+        <v>40</v>
+      </c>
+      <c r="L20" s="4">
+        <v>40</v>
+      </c>
+      <c r="M20" s="4">
+        <v>40</v>
+      </c>
+      <c r="N20" s="4">
+        <v>40</v>
+      </c>
+      <c r="O20" s="4">
+        <v>40</v>
+      </c>
+      <c r="P20" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>40</v>
+      </c>
+      <c r="R20" s="4">
+        <v>40</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>40</v>
+      </c>
+      <c r="U20">
+        <v>23</v>
+      </c>
+      <c r="V20">
+        <v>24</v>
+      </c>
+      <c r="W20">
+        <v>25</v>
+      </c>
+      <c r="X20">
+        <v>33</v>
+      </c>
+      <c r="Y20">
+        <v>31</v>
+      </c>
+      <c r="Z20">
+        <v>29</v>
+      </c>
+      <c r="AA20">
+        <v>27</v>
+      </c>
+      <c r="AB20">
+        <v>36</v>
+      </c>
+      <c r="AC20">
+        <v>37</v>
+      </c>
+      <c r="AD20">
+        <v>34</v>
+      </c>
+      <c r="AE20">
+        <v>39</v>
+      </c>
+      <c r="AF20">
+        <v>35</v>
+      </c>
+      <c r="AG20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3">
         <v>17</v>
       </c>
+      <c r="C21" s="4">
+        <v>40</v>
+      </c>
+      <c r="D21" s="4">
+        <v>40</v>
+      </c>
+      <c r="E21" s="4">
+        <v>40</v>
+      </c>
+      <c r="F21" s="4">
+        <v>40</v>
+      </c>
+      <c r="G21" s="4">
+        <v>40</v>
+      </c>
+      <c r="H21" s="4">
+        <v>18</v>
+      </c>
+      <c r="I21" s="4">
+        <v>40</v>
+      </c>
+      <c r="J21" s="4">
+        <v>40</v>
+      </c>
+      <c r="K21" s="4">
+        <v>40</v>
+      </c>
+      <c r="L21" s="4">
+        <v>40</v>
+      </c>
+      <c r="M21" s="4">
+        <v>40</v>
+      </c>
+      <c r="N21" s="4">
+        <v>40</v>
+      </c>
+      <c r="O21" s="4">
+        <v>40</v>
+      </c>
+      <c r="P21" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>40</v>
+      </c>
+      <c r="R21" s="4">
+        <v>40</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>40</v>
+      </c>
+      <c r="U21">
+        <v>23</v>
+      </c>
+      <c r="V21">
+        <v>24</v>
+      </c>
+      <c r="W21">
+        <v>25</v>
+      </c>
+      <c r="X21">
+        <v>33</v>
+      </c>
+      <c r="Y21">
+        <v>31</v>
+      </c>
+      <c r="Z21">
+        <v>29</v>
+      </c>
+      <c r="AA21">
+        <v>27</v>
+      </c>
+      <c r="AB21">
+        <v>36</v>
+      </c>
+      <c r="AC21">
+        <v>37</v>
+      </c>
+      <c r="AD21">
+        <v>34</v>
+      </c>
+      <c r="AE21">
+        <v>39</v>
+      </c>
+      <c r="AF21">
+        <v>35</v>
+      </c>
+      <c r="AG21">
+        <v>38</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3">
         <v>18</v>
       </c>
+      <c r="C22" s="4">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4">
+        <v>40</v>
+      </c>
+      <c r="E22" s="4">
+        <v>40</v>
+      </c>
+      <c r="F22" s="4">
+        <v>40</v>
+      </c>
+      <c r="G22" s="4">
+        <v>40</v>
+      </c>
+      <c r="H22" s="4">
+        <v>40</v>
+      </c>
+      <c r="I22" s="4">
+        <v>40</v>
+      </c>
+      <c r="J22" s="4">
+        <v>40</v>
+      </c>
+      <c r="K22" s="4">
+        <v>40</v>
+      </c>
+      <c r="L22" s="4">
+        <v>40</v>
+      </c>
+      <c r="M22" s="4">
+        <v>40</v>
+      </c>
+      <c r="N22" s="4">
+        <v>40</v>
+      </c>
+      <c r="O22" s="4">
+        <v>19</v>
+      </c>
+      <c r="P22" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>40</v>
+      </c>
+      <c r="R22" s="4">
+        <v>40</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>40</v>
+      </c>
+      <c r="U22">
+        <v>23</v>
+      </c>
+      <c r="V22">
+        <v>24</v>
+      </c>
+      <c r="W22">
+        <v>25</v>
+      </c>
+      <c r="X22">
+        <v>33</v>
+      </c>
+      <c r="Y22">
+        <v>31</v>
+      </c>
+      <c r="Z22">
+        <v>29</v>
+      </c>
+      <c r="AA22">
+        <v>27</v>
+      </c>
+      <c r="AB22">
+        <v>36</v>
+      </c>
+      <c r="AC22">
+        <v>37</v>
+      </c>
+      <c r="AD22">
+        <v>34</v>
+      </c>
+      <c r="AE22">
+        <v>39</v>
+      </c>
+      <c r="AF22">
+        <v>35</v>
+      </c>
+      <c r="AG22">
+        <v>38</v>
+      </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3">
         <v>19</v>
       </c>
+      <c r="C23" s="4">
+        <v>40</v>
+      </c>
+      <c r="D23" s="4">
+        <v>40</v>
+      </c>
+      <c r="E23" s="4">
+        <v>40</v>
+      </c>
+      <c r="F23" s="4">
+        <v>40</v>
+      </c>
+      <c r="G23" s="4">
+        <v>40</v>
+      </c>
+      <c r="H23" s="4">
+        <v>40</v>
+      </c>
+      <c r="I23" s="4">
+        <v>20</v>
+      </c>
+      <c r="J23" s="4">
+        <v>40</v>
+      </c>
+      <c r="K23" s="4">
+        <v>40</v>
+      </c>
+      <c r="L23" s="4">
+        <v>40</v>
+      </c>
+      <c r="M23" s="4">
+        <v>40</v>
+      </c>
+      <c r="N23" s="4">
+        <v>40</v>
+      </c>
+      <c r="O23" s="4">
+        <v>40</v>
+      </c>
+      <c r="P23" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>40</v>
+      </c>
+      <c r="R23" s="4">
+        <v>40</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>40</v>
+      </c>
+      <c r="U23">
+        <v>23</v>
+      </c>
+      <c r="V23">
+        <v>24</v>
+      </c>
+      <c r="W23">
+        <v>25</v>
+      </c>
+      <c r="X23">
+        <v>33</v>
+      </c>
+      <c r="Y23">
+        <v>31</v>
+      </c>
+      <c r="Z23">
+        <v>29</v>
+      </c>
+      <c r="AA23">
+        <v>27</v>
+      </c>
+      <c r="AB23">
+        <v>36</v>
+      </c>
+      <c r="AC23">
+        <v>37</v>
+      </c>
+      <c r="AD23">
+        <v>34</v>
+      </c>
+      <c r="AE23">
+        <v>39</v>
+      </c>
+      <c r="AF23">
+        <v>35</v>
+      </c>
+      <c r="AG23">
+        <v>38</v>
+      </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="3">
         <v>20</v>
       </c>
+      <c r="C24" s="4">
+        <v>40</v>
+      </c>
+      <c r="D24" s="4">
+        <v>40</v>
+      </c>
+      <c r="E24" s="4">
+        <v>40</v>
+      </c>
+      <c r="F24" s="4">
+        <v>40</v>
+      </c>
+      <c r="G24" s="4">
+        <v>40</v>
+      </c>
+      <c r="H24" s="4">
+        <v>40</v>
+      </c>
+      <c r="I24" s="4">
+        <v>40</v>
+      </c>
+      <c r="J24" s="4">
+        <v>40</v>
+      </c>
+      <c r="K24" s="4">
+        <v>40</v>
+      </c>
+      <c r="L24" s="4">
+        <v>40</v>
+      </c>
+      <c r="M24" s="4">
+        <v>40</v>
+      </c>
+      <c r="N24" s="4">
+        <v>40</v>
+      </c>
+      <c r="O24" s="4">
+        <v>40</v>
+      </c>
+      <c r="P24" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>40</v>
+      </c>
+      <c r="R24" s="4">
+        <v>40</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>40</v>
+      </c>
+      <c r="U24">
+        <v>23</v>
+      </c>
+      <c r="V24">
+        <v>24</v>
+      </c>
+      <c r="W24">
+        <v>25</v>
+      </c>
+      <c r="X24">
+        <v>33</v>
+      </c>
+      <c r="Y24">
+        <v>31</v>
+      </c>
+      <c r="Z24">
+        <v>29</v>
+      </c>
+      <c r="AA24">
+        <v>27</v>
+      </c>
+      <c r="AB24">
+        <v>36</v>
+      </c>
+      <c r="AC24">
+        <v>37</v>
+      </c>
+      <c r="AD24">
+        <v>34</v>
+      </c>
+      <c r="AE24">
+        <v>39</v>
+      </c>
+      <c r="AF24">
+        <v>35</v>
+      </c>
+      <c r="AG24">
+        <v>38</v>
+      </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6">
         <v>21</v>
       </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <v>0</v>
+      </c>
+      <c r="T25" s="6">
+        <v>0</v>
+      </c>
+      <c r="U25" s="6">
+        <v>0</v>
+      </c>
+      <c r="V25" s="6">
+        <v>0</v>
+      </c>
+      <c r="W25" s="6">
+        <v>0</v>
+      </c>
+      <c r="X25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6">
         <v>22</v>
       </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <v>0</v>
+      </c>
+      <c r="T26" s="6">
+        <v>0</v>
+      </c>
+      <c r="U26" s="6">
+        <v>0</v>
+      </c>
+      <c r="V26" s="6">
+        <v>0</v>
+      </c>
+      <c r="W26" s="6">
+        <v>0</v>
+      </c>
+      <c r="X26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="3">
         <v>23</v>
       </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>40</v>
+      </c>
+      <c r="H27">
+        <v>40</v>
+      </c>
+      <c r="I27">
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>40</v>
+      </c>
+      <c r="L27">
+        <v>40</v>
+      </c>
+      <c r="M27">
+        <v>40</v>
+      </c>
+      <c r="N27">
+        <v>40</v>
+      </c>
+      <c r="O27">
+        <v>40</v>
+      </c>
+      <c r="P27">
+        <v>40</v>
+      </c>
+      <c r="Q27">
+        <v>40</v>
+      </c>
+      <c r="R27">
+        <v>40</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>40</v>
+      </c>
+      <c r="U27">
+        <v>23</v>
+      </c>
+      <c r="V27">
+        <v>24</v>
+      </c>
+      <c r="W27">
+        <v>25</v>
+      </c>
+      <c r="X27">
+        <v>33</v>
+      </c>
+      <c r="Y27">
+        <v>31</v>
+      </c>
+      <c r="Z27">
+        <v>29</v>
+      </c>
+      <c r="AA27">
+        <v>27</v>
+      </c>
+      <c r="AB27">
+        <v>36</v>
+      </c>
+      <c r="AC27">
+        <v>37</v>
+      </c>
+      <c r="AD27">
+        <v>34</v>
+      </c>
+      <c r="AE27">
+        <v>39</v>
+      </c>
+      <c r="AF27">
+        <v>35</v>
+      </c>
+      <c r="AG27">
+        <v>38</v>
+      </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3">
         <v>24</v>
       </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>40</v>
+      </c>
+      <c r="H28">
+        <v>40</v>
+      </c>
+      <c r="I28">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>11</v>
+      </c>
+      <c r="K28">
+        <v>40</v>
+      </c>
+      <c r="L28">
+        <v>40</v>
+      </c>
+      <c r="M28">
+        <v>40</v>
+      </c>
+      <c r="N28">
+        <v>40</v>
+      </c>
+      <c r="O28">
+        <v>40</v>
+      </c>
+      <c r="P28">
+        <v>40</v>
+      </c>
+      <c r="Q28">
+        <v>40</v>
+      </c>
+      <c r="R28">
+        <v>40</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>40</v>
+      </c>
+      <c r="U28">
+        <v>23</v>
+      </c>
+      <c r="V28">
+        <v>24</v>
+      </c>
+      <c r="W28">
+        <v>25</v>
+      </c>
+      <c r="X28">
+        <v>33</v>
+      </c>
+      <c r="Y28">
+        <v>31</v>
+      </c>
+      <c r="Z28">
+        <v>29</v>
+      </c>
+      <c r="AA28">
+        <v>27</v>
+      </c>
+      <c r="AB28">
+        <v>36</v>
+      </c>
+      <c r="AC28">
+        <v>37</v>
+      </c>
+      <c r="AD28">
+        <v>34</v>
+      </c>
+      <c r="AE28">
+        <v>39</v>
+      </c>
+      <c r="AF28">
+        <v>35</v>
+      </c>
+      <c r="AG28">
+        <v>38</v>
+      </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3">
         <v>25</v>
       </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>40</v>
+      </c>
+      <c r="H29">
+        <v>40</v>
+      </c>
+      <c r="I29">
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <v>11</v>
+      </c>
+      <c r="K29">
+        <v>40</v>
+      </c>
+      <c r="L29">
+        <v>40</v>
+      </c>
+      <c r="M29">
+        <v>40</v>
+      </c>
+      <c r="N29">
+        <v>40</v>
+      </c>
+      <c r="O29">
+        <v>40</v>
+      </c>
+      <c r="P29">
+        <v>40</v>
+      </c>
+      <c r="Q29">
+        <v>40</v>
+      </c>
+      <c r="R29">
+        <v>40</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>40</v>
+      </c>
+      <c r="U29">
+        <v>23</v>
+      </c>
+      <c r="V29">
+        <v>24</v>
+      </c>
+      <c r="W29" s="4">
+        <v>25</v>
+      </c>
+      <c r="X29" s="4">
+        <v>26</v>
+      </c>
+      <c r="Y29">
+        <v>31</v>
+      </c>
+      <c r="Z29">
+        <v>29</v>
+      </c>
+      <c r="AA29">
+        <v>27</v>
+      </c>
+      <c r="AB29">
+        <v>36</v>
+      </c>
+      <c r="AC29">
+        <v>37</v>
+      </c>
+      <c r="AD29">
+        <v>34</v>
+      </c>
+      <c r="AE29">
+        <v>39</v>
+      </c>
+      <c r="AF29">
+        <v>35</v>
+      </c>
+      <c r="AG29">
+        <v>38</v>
+      </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="3">
         <v>26</v>
       </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>40</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>40</v>
+      </c>
+      <c r="H30">
+        <v>40</v>
+      </c>
+      <c r="I30">
+        <v>17</v>
+      </c>
+      <c r="J30">
+        <v>11</v>
+      </c>
+      <c r="K30">
+        <v>40</v>
+      </c>
+      <c r="L30">
+        <v>40</v>
+      </c>
+      <c r="M30">
+        <v>40</v>
+      </c>
+      <c r="N30">
+        <v>40</v>
+      </c>
+      <c r="O30">
+        <v>40</v>
+      </c>
+      <c r="P30">
+        <v>40</v>
+      </c>
+      <c r="Q30">
+        <v>40</v>
+      </c>
+      <c r="R30">
+        <v>40</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>40</v>
+      </c>
+      <c r="U30">
+        <v>23</v>
+      </c>
+      <c r="V30">
+        <v>24</v>
+      </c>
+      <c r="W30">
+        <v>25</v>
+      </c>
+      <c r="X30">
+        <v>33</v>
+      </c>
+      <c r="Y30">
+        <v>31</v>
+      </c>
+      <c r="Z30">
+        <v>29</v>
+      </c>
+      <c r="AA30">
+        <v>27</v>
+      </c>
+      <c r="AB30">
+        <v>36</v>
+      </c>
+      <c r="AC30">
+        <v>37</v>
+      </c>
+      <c r="AD30">
+        <v>34</v>
+      </c>
+      <c r="AE30">
+        <v>39</v>
+      </c>
+      <c r="AF30">
+        <v>35</v>
+      </c>
+      <c r="AG30">
+        <v>38</v>
+      </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="3">
         <v>27</v>
       </c>
+      <c r="C31">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>38</v>
+      </c>
+      <c r="E31">
+        <v>38</v>
+      </c>
+      <c r="F31">
+        <v>38</v>
+      </c>
+      <c r="G31">
+        <v>38</v>
+      </c>
+      <c r="H31">
+        <v>38</v>
+      </c>
+      <c r="I31">
+        <v>38</v>
+      </c>
+      <c r="J31">
+        <v>38</v>
+      </c>
+      <c r="K31">
+        <v>38</v>
+      </c>
+      <c r="L31">
+        <v>38</v>
+      </c>
+      <c r="M31">
+        <v>38</v>
+      </c>
+      <c r="N31">
+        <v>38</v>
+      </c>
+      <c r="O31">
+        <v>38</v>
+      </c>
+      <c r="P31">
+        <v>38</v>
+      </c>
+      <c r="Q31">
+        <v>38</v>
+      </c>
+      <c r="R31">
+        <v>38</v>
+      </c>
+      <c r="S31">
+        <v>38</v>
+      </c>
+      <c r="T31">
+        <v>38</v>
+      </c>
+      <c r="U31">
+        <v>38</v>
+      </c>
+      <c r="V31">
+        <v>38</v>
+      </c>
+      <c r="W31">
+        <v>38</v>
+      </c>
+      <c r="X31">
+        <v>38</v>
+      </c>
+      <c r="Y31">
+        <v>38</v>
+      </c>
+      <c r="Z31">
+        <v>38</v>
+      </c>
+      <c r="AA31">
+        <v>28</v>
+      </c>
+      <c r="AB31">
+        <v>38</v>
+      </c>
+      <c r="AC31">
+        <v>38</v>
+      </c>
+      <c r="AD31">
+        <v>38</v>
+      </c>
+      <c r="AE31">
+        <v>38</v>
+      </c>
+      <c r="AF31">
+        <v>38</v>
+      </c>
+      <c r="AG31">
+        <v>38</v>
+      </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="3">
         <v>28</v>
       </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>40</v>
+      </c>
+      <c r="H32">
+        <v>40</v>
+      </c>
+      <c r="I32">
+        <v>17</v>
+      </c>
+      <c r="J32">
+        <v>11</v>
+      </c>
+      <c r="K32">
+        <v>40</v>
+      </c>
+      <c r="L32">
+        <v>40</v>
+      </c>
+      <c r="M32">
+        <v>40</v>
+      </c>
+      <c r="N32">
+        <v>40</v>
+      </c>
+      <c r="O32">
+        <v>40</v>
+      </c>
+      <c r="P32">
+        <v>40</v>
+      </c>
+      <c r="Q32">
+        <v>40</v>
+      </c>
+      <c r="R32">
+        <v>40</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>40</v>
+      </c>
+      <c r="U32">
+        <v>23</v>
+      </c>
+      <c r="V32">
+        <v>24</v>
+      </c>
+      <c r="W32">
+        <v>25</v>
+      </c>
+      <c r="X32">
+        <v>33</v>
+      </c>
+      <c r="Y32">
+        <v>31</v>
+      </c>
+      <c r="Z32">
+        <v>29</v>
+      </c>
+      <c r="AA32">
+        <v>27</v>
+      </c>
+      <c r="AB32">
+        <v>36</v>
+      </c>
+      <c r="AC32">
+        <v>37</v>
+      </c>
+      <c r="AD32">
+        <v>34</v>
+      </c>
+      <c r="AE32">
+        <v>39</v>
+      </c>
+      <c r="AF32">
+        <v>35</v>
+      </c>
+      <c r="AG32">
+        <v>38</v>
+      </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="3">
         <v>29</v>
       </c>
+      <c r="C33">
+        <v>38</v>
+      </c>
+      <c r="D33">
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <v>38</v>
+      </c>
+      <c r="F33">
+        <v>38</v>
+      </c>
+      <c r="G33">
+        <v>38</v>
+      </c>
+      <c r="H33">
+        <v>38</v>
+      </c>
+      <c r="I33">
+        <v>38</v>
+      </c>
+      <c r="J33">
+        <v>38</v>
+      </c>
+      <c r="K33">
+        <v>38</v>
+      </c>
+      <c r="L33">
+        <v>38</v>
+      </c>
+      <c r="M33">
+        <v>38</v>
+      </c>
+      <c r="N33">
+        <v>38</v>
+      </c>
+      <c r="O33">
+        <v>38</v>
+      </c>
+      <c r="P33">
+        <v>38</v>
+      </c>
+      <c r="Q33">
+        <v>38</v>
+      </c>
+      <c r="R33">
+        <v>38</v>
+      </c>
+      <c r="S33">
+        <v>38</v>
+      </c>
+      <c r="T33">
+        <v>38</v>
+      </c>
+      <c r="U33">
+        <v>38</v>
+      </c>
+      <c r="V33">
+        <v>38</v>
+      </c>
+      <c r="W33">
+        <v>38</v>
+      </c>
+      <c r="X33">
+        <v>38</v>
+      </c>
+      <c r="Y33">
+        <v>38</v>
+      </c>
+      <c r="Z33">
+        <v>30</v>
+      </c>
+      <c r="AA33">
+        <v>38</v>
+      </c>
+      <c r="AB33">
+        <v>38</v>
+      </c>
+      <c r="AC33">
+        <v>38</v>
+      </c>
+      <c r="AD33">
+        <v>38</v>
+      </c>
+      <c r="AE33">
+        <v>38</v>
+      </c>
+      <c r="AF33">
+        <v>38</v>
+      </c>
+      <c r="AG33">
+        <v>38</v>
+      </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="3">
         <v>30</v>
       </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>40</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>40</v>
+      </c>
+      <c r="H34">
+        <v>40</v>
+      </c>
+      <c r="I34">
+        <v>17</v>
+      </c>
+      <c r="J34">
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <v>40</v>
+      </c>
+      <c r="L34">
+        <v>40</v>
+      </c>
+      <c r="M34">
+        <v>40</v>
+      </c>
+      <c r="N34">
+        <v>40</v>
+      </c>
+      <c r="O34">
+        <v>40</v>
+      </c>
+      <c r="P34">
+        <v>40</v>
+      </c>
+      <c r="Q34">
+        <v>40</v>
+      </c>
+      <c r="R34">
+        <v>40</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>40</v>
+      </c>
+      <c r="U34">
+        <v>23</v>
+      </c>
+      <c r="V34">
+        <v>24</v>
+      </c>
+      <c r="W34">
+        <v>25</v>
+      </c>
+      <c r="X34">
+        <v>33</v>
+      </c>
+      <c r="Y34">
+        <v>31</v>
+      </c>
+      <c r="Z34">
+        <v>29</v>
+      </c>
+      <c r="AA34">
+        <v>27</v>
+      </c>
+      <c r="AB34">
+        <v>36</v>
+      </c>
+      <c r="AC34">
+        <v>37</v>
+      </c>
+      <c r="AD34">
+        <v>34</v>
+      </c>
+      <c r="AE34">
+        <v>39</v>
+      </c>
+      <c r="AF34">
+        <v>35</v>
+      </c>
+      <c r="AG34">
+        <v>38</v>
+      </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="3">
         <v>31</v>
       </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>40</v>
+      </c>
+      <c r="I35">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>11</v>
+      </c>
+      <c r="K35">
+        <v>40</v>
+      </c>
+      <c r="L35">
+        <v>40</v>
+      </c>
+      <c r="M35">
+        <v>40</v>
+      </c>
+      <c r="N35">
+        <v>40</v>
+      </c>
+      <c r="O35">
+        <v>40</v>
+      </c>
+      <c r="P35">
+        <v>40</v>
+      </c>
+      <c r="Q35">
+        <v>40</v>
+      </c>
+      <c r="R35">
+        <v>40</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>40</v>
+      </c>
+      <c r="U35">
+        <v>23</v>
+      </c>
+      <c r="V35">
+        <v>24</v>
+      </c>
+      <c r="W35">
+        <v>25</v>
+      </c>
+      <c r="X35" s="4">
+        <v>32</v>
+      </c>
+      <c r="Y35">
+        <v>31</v>
+      </c>
+      <c r="Z35">
+        <v>29</v>
+      </c>
+      <c r="AA35">
+        <v>27</v>
+      </c>
+      <c r="AB35">
+        <v>36</v>
+      </c>
+      <c r="AC35">
+        <v>37</v>
+      </c>
+      <c r="AD35">
+        <v>34</v>
+      </c>
+      <c r="AE35">
+        <v>39</v>
+      </c>
+      <c r="AF35">
+        <v>35</v>
+      </c>
+      <c r="AG35">
+        <v>38</v>
+      </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="3">
         <v>32</v>
       </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>40</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <v>40</v>
+      </c>
+      <c r="I36">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>11</v>
+      </c>
+      <c r="K36">
+        <v>40</v>
+      </c>
+      <c r="L36">
+        <v>40</v>
+      </c>
+      <c r="M36">
+        <v>40</v>
+      </c>
+      <c r="N36">
+        <v>40</v>
+      </c>
+      <c r="O36">
+        <v>40</v>
+      </c>
+      <c r="P36">
+        <v>40</v>
+      </c>
+      <c r="Q36">
+        <v>40</v>
+      </c>
+      <c r="R36">
+        <v>40</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>40</v>
+      </c>
+      <c r="U36">
+        <v>23</v>
+      </c>
+      <c r="V36">
+        <v>24</v>
+      </c>
+      <c r="W36">
+        <v>25</v>
+      </c>
+      <c r="X36">
+        <v>33</v>
+      </c>
+      <c r="Y36">
+        <v>31</v>
+      </c>
+      <c r="Z36">
+        <v>29</v>
+      </c>
+      <c r="AA36">
+        <v>27</v>
+      </c>
+      <c r="AB36">
+        <v>36</v>
+      </c>
+      <c r="AC36">
+        <v>37</v>
+      </c>
+      <c r="AD36">
+        <v>34</v>
+      </c>
+      <c r="AE36">
+        <v>39</v>
+      </c>
+      <c r="AF36">
+        <v>35</v>
+      </c>
+      <c r="AG36">
+        <v>38</v>
+      </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="3">
         <v>33</v>
       </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>40</v>
+      </c>
+      <c r="H37">
+        <v>40</v>
+      </c>
+      <c r="I37">
+        <v>17</v>
+      </c>
+      <c r="J37">
+        <v>11</v>
+      </c>
+      <c r="K37">
+        <v>40</v>
+      </c>
+      <c r="L37">
+        <v>40</v>
+      </c>
+      <c r="M37">
+        <v>40</v>
+      </c>
+      <c r="N37">
+        <v>40</v>
+      </c>
+      <c r="O37">
+        <v>40</v>
+      </c>
+      <c r="P37">
+        <v>40</v>
+      </c>
+      <c r="Q37">
+        <v>40</v>
+      </c>
+      <c r="R37">
+        <v>40</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>40</v>
+      </c>
+      <c r="U37">
+        <v>23</v>
+      </c>
+      <c r="V37">
+        <v>24</v>
+      </c>
+      <c r="W37">
+        <v>25</v>
+      </c>
+      <c r="X37" s="4">
+        <v>32</v>
+      </c>
+      <c r="Y37">
+        <v>31</v>
+      </c>
+      <c r="Z37">
+        <v>29</v>
+      </c>
+      <c r="AA37">
+        <v>27</v>
+      </c>
+      <c r="AB37">
+        <v>36</v>
+      </c>
+      <c r="AC37">
+        <v>37</v>
+      </c>
+      <c r="AD37">
+        <v>34</v>
+      </c>
+      <c r="AE37">
+        <v>39</v>
+      </c>
+      <c r="AF37">
+        <v>35</v>
+      </c>
+      <c r="AG37">
+        <v>38</v>
+      </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="3">
         <v>34</v>
       </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>40</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>40</v>
+      </c>
+      <c r="H38">
+        <v>40</v>
+      </c>
+      <c r="I38">
+        <v>17</v>
+      </c>
+      <c r="J38">
+        <v>11</v>
+      </c>
+      <c r="K38">
+        <v>40</v>
+      </c>
+      <c r="L38">
+        <v>40</v>
+      </c>
+      <c r="M38">
+        <v>40</v>
+      </c>
+      <c r="N38">
+        <v>40</v>
+      </c>
+      <c r="O38">
+        <v>40</v>
+      </c>
+      <c r="P38">
+        <v>40</v>
+      </c>
+      <c r="Q38">
+        <v>40</v>
+      </c>
+      <c r="R38">
+        <v>40</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>40</v>
+      </c>
+      <c r="U38">
+        <v>23</v>
+      </c>
+      <c r="V38">
+        <v>24</v>
+      </c>
+      <c r="W38">
+        <v>25</v>
+      </c>
+      <c r="X38">
+        <v>33</v>
+      </c>
+      <c r="Y38">
+        <v>31</v>
+      </c>
+      <c r="Z38">
+        <v>29</v>
+      </c>
+      <c r="AA38">
+        <v>27</v>
+      </c>
+      <c r="AB38">
+        <v>36</v>
+      </c>
+      <c r="AC38">
+        <v>37</v>
+      </c>
+      <c r="AD38">
+        <v>34</v>
+      </c>
+      <c r="AE38">
+        <v>39</v>
+      </c>
+      <c r="AF38">
+        <v>35</v>
+      </c>
+      <c r="AG38">
+        <v>38</v>
+      </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="3">
         <v>35</v>
       </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>40</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>40</v>
+      </c>
+      <c r="H39">
+        <v>40</v>
+      </c>
+      <c r="I39">
+        <v>17</v>
+      </c>
+      <c r="J39">
+        <v>11</v>
+      </c>
+      <c r="K39">
+        <v>40</v>
+      </c>
+      <c r="L39">
+        <v>40</v>
+      </c>
+      <c r="M39">
+        <v>40</v>
+      </c>
+      <c r="N39">
+        <v>40</v>
+      </c>
+      <c r="O39">
+        <v>40</v>
+      </c>
+      <c r="P39">
+        <v>40</v>
+      </c>
+      <c r="Q39">
+        <v>40</v>
+      </c>
+      <c r="R39">
+        <v>40</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>40</v>
+      </c>
+      <c r="U39">
+        <v>23</v>
+      </c>
+      <c r="V39">
+        <v>24</v>
+      </c>
+      <c r="W39">
+        <v>25</v>
+      </c>
+      <c r="X39">
+        <v>33</v>
+      </c>
+      <c r="Y39">
+        <v>31</v>
+      </c>
+      <c r="Z39">
+        <v>29</v>
+      </c>
+      <c r="AA39">
+        <v>27</v>
+      </c>
+      <c r="AB39">
+        <v>36</v>
+      </c>
+      <c r="AC39">
+        <v>37</v>
+      </c>
+      <c r="AD39">
+        <v>34</v>
+      </c>
+      <c r="AE39">
+        <v>39</v>
+      </c>
+      <c r="AF39">
+        <v>35</v>
+      </c>
+      <c r="AG39">
+        <v>38</v>
+      </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="3">
         <v>36</v>
       </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>40</v>
+      </c>
+      <c r="H40">
+        <v>40</v>
+      </c>
+      <c r="I40">
+        <v>17</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
+      <c r="K40">
+        <v>40</v>
+      </c>
+      <c r="L40">
+        <v>40</v>
+      </c>
+      <c r="M40">
+        <v>40</v>
+      </c>
+      <c r="N40">
+        <v>40</v>
+      </c>
+      <c r="O40">
+        <v>40</v>
+      </c>
+      <c r="P40">
+        <v>40</v>
+      </c>
+      <c r="Q40">
+        <v>40</v>
+      </c>
+      <c r="R40">
+        <v>40</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>40</v>
+      </c>
+      <c r="U40">
+        <v>23</v>
+      </c>
+      <c r="V40">
+        <v>24</v>
+      </c>
+      <c r="W40">
+        <v>25</v>
+      </c>
+      <c r="X40">
+        <v>33</v>
+      </c>
+      <c r="Y40">
+        <v>31</v>
+      </c>
+      <c r="Z40">
+        <v>29</v>
+      </c>
+      <c r="AA40">
+        <v>27</v>
+      </c>
+      <c r="AB40">
+        <v>36</v>
+      </c>
+      <c r="AC40">
+        <v>37</v>
+      </c>
+      <c r="AD40">
+        <v>34</v>
+      </c>
+      <c r="AE40">
+        <v>39</v>
+      </c>
+      <c r="AF40">
+        <v>35</v>
+      </c>
+      <c r="AG40">
+        <v>38</v>
+      </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="3">
         <v>37</v>
       </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <v>40</v>
+      </c>
+      <c r="I41">
+        <v>17</v>
+      </c>
+      <c r="J41">
+        <v>11</v>
+      </c>
+      <c r="K41">
+        <v>40</v>
+      </c>
+      <c r="L41">
+        <v>40</v>
+      </c>
+      <c r="M41">
+        <v>40</v>
+      </c>
+      <c r="N41">
+        <v>40</v>
+      </c>
+      <c r="O41">
+        <v>40</v>
+      </c>
+      <c r="P41">
+        <v>40</v>
+      </c>
+      <c r="Q41">
+        <v>40</v>
+      </c>
+      <c r="R41">
+        <v>40</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>40</v>
+      </c>
+      <c r="U41">
+        <v>23</v>
+      </c>
+      <c r="V41">
+        <v>24</v>
+      </c>
+      <c r="W41">
+        <v>25</v>
+      </c>
+      <c r="X41">
+        <v>33</v>
+      </c>
+      <c r="Y41">
+        <v>31</v>
+      </c>
+      <c r="Z41">
+        <v>29</v>
+      </c>
+      <c r="AA41">
+        <v>27</v>
+      </c>
+      <c r="AB41">
+        <v>36</v>
+      </c>
+      <c r="AC41">
+        <v>37</v>
+      </c>
+      <c r="AD41">
+        <v>34</v>
+      </c>
+      <c r="AE41">
+        <v>39</v>
+      </c>
+      <c r="AF41">
+        <v>35</v>
+      </c>
+      <c r="AG41">
+        <v>38</v>
+      </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>38</v>
+      </c>
+      <c r="D42">
+        <v>38</v>
+      </c>
+      <c r="E42">
+        <v>38</v>
+      </c>
+      <c r="F42">
+        <v>38</v>
+      </c>
+      <c r="G42">
+        <v>38</v>
+      </c>
+      <c r="H42">
+        <v>38</v>
+      </c>
+      <c r="I42">
+        <v>38</v>
+      </c>
+      <c r="J42">
+        <v>38</v>
+      </c>
+      <c r="K42">
+        <v>38</v>
+      </c>
+      <c r="L42">
+        <v>38</v>
+      </c>
+      <c r="M42">
+        <v>38</v>
+      </c>
+      <c r="N42">
+        <v>38</v>
+      </c>
+      <c r="O42">
+        <v>38</v>
+      </c>
+      <c r="P42">
+        <v>38</v>
+      </c>
+      <c r="Q42">
+        <v>38</v>
+      </c>
+      <c r="R42">
+        <v>38</v>
+      </c>
+      <c r="S42">
+        <v>38</v>
+      </c>
+      <c r="T42">
+        <v>38</v>
+      </c>
+      <c r="U42">
+        <v>38</v>
+      </c>
+      <c r="V42">
+        <v>38</v>
+      </c>
+      <c r="W42">
+        <v>38</v>
+      </c>
+      <c r="X42">
+        <v>38</v>
+      </c>
+      <c r="Y42">
+        <v>38</v>
+      </c>
+      <c r="Z42">
+        <v>38</v>
+      </c>
+      <c r="AA42">
+        <v>38</v>
+      </c>
+      <c r="AB42">
+        <v>38</v>
+      </c>
+      <c r="AC42">
+        <v>38</v>
+      </c>
+      <c r="AD42">
+        <v>38</v>
+      </c>
+      <c r="AE42">
+        <v>38</v>
+      </c>
+      <c r="AF42">
+        <v>38</v>
+      </c>
+      <c r="AG42">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6">
         <v>39</v>
       </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L43" s="6">
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
+        <v>0</v>
+      </c>
+      <c r="P43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>0</v>
+      </c>
+      <c r="R43" s="6">
+        <v>0</v>
+      </c>
+      <c r="S43" s="6">
+        <v>0</v>
+      </c>
+      <c r="T43" s="6">
+        <v>0</v>
+      </c>
+      <c r="U43" s="6">
+        <v>0</v>
+      </c>
+      <c r="V43" s="6">
+        <v>0</v>
+      </c>
+      <c r="W43" s="6">
+        <v>0</v>
+      </c>
+      <c r="X43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>40</v>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="3">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4">
+        <v>40</v>
+      </c>
+      <c r="D44" s="4">
+        <v>40</v>
+      </c>
+      <c r="E44" s="4">
+        <v>40</v>
+      </c>
+      <c r="F44" s="4">
+        <v>40</v>
+      </c>
+      <c r="G44" s="4">
+        <v>40</v>
+      </c>
+      <c r="H44" s="4">
+        <v>40</v>
+      </c>
+      <c r="I44" s="4">
+        <v>40</v>
+      </c>
+      <c r="J44" s="4">
+        <v>40</v>
+      </c>
+      <c r="K44" s="4">
+        <v>40</v>
+      </c>
+      <c r="L44" s="4">
+        <v>40</v>
+      </c>
+      <c r="M44" s="4">
+        <v>40</v>
+      </c>
+      <c r="N44" s="4">
+        <v>40</v>
+      </c>
+      <c r="O44" s="4">
+        <v>40</v>
+      </c>
+      <c r="P44" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>40</v>
+      </c>
+      <c r="R44" s="4">
+        <v>40</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44" s="4">
+        <v>40</v>
+      </c>
+      <c r="U44">
+        <v>23</v>
+      </c>
+      <c r="V44">
+        <v>24</v>
+      </c>
+      <c r="W44">
+        <v>25</v>
+      </c>
+      <c r="X44">
+        <v>33</v>
+      </c>
+      <c r="Y44">
+        <v>31</v>
+      </c>
+      <c r="Z44">
+        <v>29</v>
+      </c>
+      <c r="AA44">
+        <v>27</v>
+      </c>
+      <c r="AB44">
+        <v>36</v>
+      </c>
+      <c r="AC44">
+        <v>37</v>
+      </c>
+      <c r="AD44">
+        <v>34</v>
+      </c>
+      <c r="AE44">
+        <v>39</v>
+      </c>
+      <c r="AF44">
+        <v>35</v>
+      </c>
+      <c r="AG44">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A42"/>
+  <mergeCells count="1">
     <mergeCell ref="C1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
